--- a/medicine/Enfance/Le_Grand_Bain_(roman)/Le_Grand_Bain_(roman).xlsx
+++ b/medicine/Enfance/Le_Grand_Bain_(roman)/Le_Grand_Bain_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Grand Bain est le quinzième tome de la série Journal d'un dégonflé. Il a été écrit et illustré par Jeff Kinney. Le livre, sorti dans sa version originale le 27 octobre 2020, est publié en français le 12 novembre 2020.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après les événements du tome précédent, les Heffley doivent rester dans le sous-sol de la grand-mère de Greg. Ils n'arrivent pas à se mettre d'accord sur les destinations de vacances, jusqu'au moment où on les charge de nettoyer le camping-car de l'oncle Gary. Ils partent alors en vacances avec. Dans un premier temps, Greg explique qu'ils ont dû acheter un équipement de survie pour se protéger. Puis, après avoir rendu le camping-car propre, ils ont décidé de faire une virée.
 Le premier soir, les Heffley éprouvent de la difficulté à pouvoir s'arrêter. Ils passent la nuit dans un jardin public, sans le savoir. Plus tard, ils décident de se rendre à un parc d'attractions, mais le choix des activités s'avère assez limité en raison de la taille de Manu.
@@ -573,7 +589,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le livre est de couleur bleu ciel.
 Briquette joue le rôle du méchant dans ce roman.
